--- a/Data/Input/Companies/Photon legal.xlsx
+++ b/Data/Input/Companies/Photon legal.xlsx
@@ -13,14 +13,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20" count="20">
   <si>
     <t>GRNumbers</t>
   </si>
   <si>
-    <t>21810714</t>
-  </si>
-  <si>
     <t>21810054</t>
   </si>
   <si>
@@ -69,7 +66,13 @@
     <t>Min CGPA</t>
   </si>
   <si>
-    <t>7.5</t>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>HR Email</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -125,57 +128,63 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -207,11 +216,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
